--- a/cd/doc/formaty_plikow_xls_do_importu_danych/Plan_Studiow.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/Plan_Studiow.xlsx
@@ -54,10 +54,10 @@
     <t>Zostanie wyświetlony raport z wierszami które udało / nie udało się zaimportować</t>
   </si>
   <si>
-    <t>Wykładowca (tytuł+Imie+nazwisko lub Imie+nazwisko lub skrót lub Integration id)</t>
-  </si>
-  <si>
     <t>ID Planu Studiów (można zostawić puste, ale jeżeli podana zostanie wartość, to plansoft.org zaktualizuje istniejący rekord)</t>
+  </si>
+  <si>
+    <t>Wykładowca (tytuł+Imie+nazwisko lub Imie+nazwisko lub skrót lub Integration id lub Id)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
